--- a/phd_timeline.xlsx
+++ b/phd_timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaan/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10440F68-231B-6A42-A8F4-7448D7FC70AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C3F465-1196-9D4E-B583-995F8E03E6A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{5AD32ED5-8CED-CC41-ADF1-571861051290}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -490,19 +490,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,7 +827,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G30" sqref="G30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,40 +841,40 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C3" s="39">
+      <c r="C3" s="45">
         <v>2020</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46">
         <v>2021</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46">
         <v>2022</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1162,12 +1164,12 @@
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1178,35 +1180,35 @@
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="44"/>
     </row>
     <row r="34" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/phd_timeline.xlsx
+++ b/phd_timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaan/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C3F465-1196-9D4E-B583-995F8E03E6A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9019EA9-1BFB-8648-99C2-EAC96BD9EED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{5AD32ED5-8CED-CC41-ADF1-571861051290}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Timeline</t>
   </si>
@@ -165,13 +157,16 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Thesis Write Up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +190,14 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -448,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -496,15 +499,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,12 +836,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4413235-0394-F147-8DB3-D8645E5305D9}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -841,135 +852,135 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C3" s="45">
+      <c r="C3" s="48">
         <v>2020</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49">
         <v>2021</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49">
         <v>2022</v>
       </c>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="X4" t="s">
+      <c r="X4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="52" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2"/>
@@ -981,6 +992,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -989,6 +1001,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -996,6 +1009,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1004,6 +1018,7 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1014,6 +1029,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1024,6 +1040,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1033,17 +1050,19 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1055,6 +1074,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1064,6 +1084,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1071,14 +1092,16 @@
       <c r="F16" s="17"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1088,19 +1111,21 @@
       <c r="K18" s="18"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1134,8 @@
       <c r="L21" s="27"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1118,19 +1144,21 @@
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="N24" s="31"/>
       <c r="O24" s="32"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1139,12 +1167,13 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="30"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1181,8 @@
       <c r="R27" s="37"/>
       <c r="S27" s="38"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1160,19 +1190,36 @@
       <c r="S28" s="35"/>
       <c r="T28" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
-    </row>
-    <row r="32" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="47"/>
+    </row>
+    <row r="32" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
         <v>42</v>
       </c>
     </row>

--- a/phd_timeline.xlsx
+++ b/phd_timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaan/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9019EA9-1BFB-8648-99C2-EAC96BD9EED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527DA28-CFC0-0B4F-BF18-11D38C9BBEA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{5AD32ED5-8CED-CC41-ADF1-571861051290}"/>
   </bookViews>
@@ -502,18 +502,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +837,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,135 +852,135 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C3" s="48">
+      <c r="C3" s="51">
         <v>2020</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52">
         <v>2021</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52">
         <v>2022</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2"/>
@@ -992,7 +992,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="50"/>
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1050,19 +1050,19 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="50"/>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1093,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="50"/>
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1112,12 +1112,12 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="50" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="50"/>
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="50"/>
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1145,12 +1145,12 @@
       <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="50"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="O24" s="32"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="50"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1168,12 +1168,12 @@
       <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="50"/>
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="S27" s="38"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1191,24 +1191,24 @@
       <c r="T28" s="36"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="50"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="50" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="45"/>
@@ -1219,7 +1219,7 @@
       <c r="L31" s="47"/>
     </row>
     <row r="32" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="50" t="s">
         <v>42</v>
       </c>
     </row>
